--- a/DOC/缓存列表.xlsx
+++ b/DOC/缓存列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="163">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,84 +339,252 @@
     <t>systemApi/com.hs.common.region.getRegin.biz.ext</t>
   </si>
   <si>
+    <t>用户角色数据</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hs.common.orga.queryRoleRes</t>
+  </si>
+  <si>
+    <t>roleId</t>
+  </si>
+  <si>
+    <t>角色资源数据</t>
+  </si>
+  <si>
+    <t>com.hs.common.orga.queryAppFunctionInfo</t>
+  </si>
+  <si>
+    <t>resId</t>
+  </si>
+  <si>
+    <t>资源function详情数据</t>
+  </si>
+  <si>
+    <t>com.hs.common.orga.queryResInfo</t>
+  </si>
+  <si>
+    <t>资源详情数据</t>
+  </si>
+  <si>
+    <t>菜单数据</t>
+  </si>
+  <si>
+    <t>com.hs.common.orga.queryMenu</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hs.common.orga.queryAppFunction</t>
+  </si>
+  <si>
+    <t>资源数据表数据</t>
+  </si>
+  <si>
+    <t>资源数据</t>
+  </si>
+  <si>
+    <t>com.hs.common.orga.queryComAppFunction</t>
+  </si>
+  <si>
+    <t>资源数据明细详情</t>
+  </si>
+  <si>
+    <t>公司详情数据</t>
+  </si>
+  <si>
+    <t>com.hs.common.orga.queryOrgInfo</t>
+  </si>
+  <si>
+    <t>orgid</t>
+  </si>
+  <si>
+    <t>员工兼职数据</t>
+  </si>
+  <si>
+    <t>com.hs.common.orga.queryEmpOrg</t>
+  </si>
+  <si>
+    <t>empId</t>
+  </si>
+  <si>
+    <t>com.hsapi.part.baseDataCrud.crud.getStorehouse.biz.ext</t>
+  </si>
+  <si>
+    <t>查询仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.tenant.employee.queryMemStore.biz.ext</t>
+  </si>
+  <si>
+    <t>查询人员关联的仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启仓库权限控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.repair.common.common.getDatadictionaries.biz.ext</t>
+  </si>
+  <si>
+    <t>com.hsapi.repair.common.common.getDictItems.biz.ext</t>
+  </si>
+  <si>
+    <t>com.hsapi.repair.common.common.getProvinceAndCity.biz.ext</t>
+  </si>
+  <si>
+    <t>获取省份和城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.part.common.svr.getAllCarBrand.biz.ext</t>
+  </si>
+  <si>
+    <t>获取车辆品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.repair.common.common.getCarSeriesByBrandId.biz.ext</t>
+  </si>
+  <si>
+    <t>根据品牌获取车系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.repair.common.common.getCarModelByBrandId.biz.ext</t>
+  </si>
+  <si>
+    <t>根据品牌获取车型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.repair.common.svr.getAllInsuranceCompany.biz.ext</t>
+  </si>
+  <si>
+    <t>获取保险公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.part.common.svr.getRoleMemberByRoleId.biz.ext</t>
+  </si>
+  <si>
+    <t>com.hsapi.repair.baseData.team.getTeamByTypeList.biz.ext</t>
+  </si>
+  <si>
+    <t>com.hsapi.repair.baseData.team.getTeamMemberByTeamIdList.biz.ext</t>
+  </si>
+  <si>
+    <t>com.hsapi.part.common.svr.getOrgList.biz.ext</t>
+  </si>
+  <si>
+    <t>com.hsapi.repair.common.svr.getDeductRate.biz.ext</t>
+  </si>
+  <si>
+    <t>com.hsapi.part.common.svr.getAllPartBrand.biz.ext</t>
+  </si>
+  <si>
+    <t>com.hsapi.system.dict.dictMgr.queryPartType.biz.ext</t>
+  </si>
+  <si>
+    <t>获取领料人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.repair.baseData.team.queryWorkTeam.biz.ext</t>
+  </si>
+  <si>
+    <t>com.hsapi.system.dict.org.queryMember.biz.ext</t>
+  </si>
+  <si>
+    <t>com.hsapi.system.tenant.user.getEmployeeByEmpId.biz.ext</t>
+  </si>
+  <si>
+    <t>com.hsapi.part.common.svr.getProvinceAndCity.biz.ext</t>
+  </si>
+  <si>
+    <t>com.hsapi.part.baseDataCrud.crud.getPartById.biz.ext</t>
+  </si>
+  <si>
+    <t>com.hsapi.part.common.svr.getLocationListByStoreId.biz.ext</t>
+  </si>
+  <si>
+    <t>com.hsapi.system.dict.org.getComps.biz.ext</t>
+  </si>
+  <si>
+    <t>com.hsapi.system.dict.dictMgr.queryPartBrand.biz.ext</t>
+  </si>
+  <si>
+    <t>com.hsapi.system.dict.dictMgr.queryCarBrand.biz.ext</t>
+  </si>
+  <si>
+    <t>com.hsapi.system.dict.dictMgr.querySell.biz.ext</t>
+  </si>
+  <si>
+    <t>com.hsapi.system.dict.dictMgr.queryCarSeries.biz.ext</t>
+  </si>
+  <si>
+    <t>com.hsapi.system.dict.dictMgr.queryCarModel.biz.ext</t>
+  </si>
+  <si>
+    <t>com.hsapi.system.dict.dictMgr.queryServiceType.biz.ext</t>
+  </si>
+  <si>
+    <t>com.hsapi.system.dict.dictMgr.querySelectGuestType.biz.ext</t>
+  </si>
+  <si>
+    <t>com.hsapi.system.dict.guestMgr.queryGuest.biz.ext</t>
+  </si>
+  <si>
+    <t>com.hsapi.system.dict.dictMgr.queryDict.biz.ext</t>
+  </si>
+  <si>
+    <t>com.hsapi.system.dict.dictMgr.queryDictTree.biz.ext</t>
+  </si>
+  <si>
+    <t>com.hsapi.system.dict.dictMgr.queryDictTypeTree.biz.ext</t>
+  </si>
+  <si>
+    <t>com.hsapi.system.dict.dictMgr.queryDictTypeItems.biz.ext</t>
+  </si>
+  <si>
+    <t>com.hsapi.system.dict.roleMgr.queryRoleMember.biz.ext</t>
+  </si>
+  <si>
+    <t>com.hsapi.system.dict.dictMgr.getProvinces.biz.ext</t>
+  </si>
+  <si>
+    <t>com.hsapi.system.dict.dictMgr.getCitys.biz.ext</t>
+  </si>
+  <si>
+    <t>com.hs.common.region.getRegin.biz.ext</t>
+  </si>
+  <si>
+    <t>com.hsapi.system.dict.org.queryMember.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>com.hs.common.orga.queryUserRoles</t>
-  </si>
-  <si>
-    <t>用户角色数据</t>
-  </si>
-  <si>
-    <t>userId</t>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.hs.common.orga.queryRoleRes</t>
-  </si>
-  <si>
-    <t>roleId</t>
-  </si>
-  <si>
-    <t>角色资源数据</t>
-  </si>
-  <si>
-    <t>com.hs.common.orga.queryAppFunctionInfo</t>
-  </si>
-  <si>
-    <t>resId</t>
-  </si>
-  <si>
-    <t>资源function详情数据</t>
-  </si>
-  <si>
-    <t>com.hs.common.orga.queryResInfo</t>
-  </si>
-  <si>
-    <t>资源详情数据</t>
-  </si>
-  <si>
-    <t>菜单数据</t>
-  </si>
-  <si>
-    <t>com.hs.common.orga.queryMenu</t>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.hs.common.orga.queryAppFunction</t>
-  </si>
-  <si>
-    <t>资源数据表数据</t>
-  </si>
-  <si>
-    <t>资源数据</t>
-  </si>
-  <si>
-    <t>com.hs.common.orga.queryComAppFunction</t>
-  </si>
-  <si>
-    <t>资源数据明细详情</t>
-  </si>
-  <si>
-    <t>公司详情数据</t>
-  </si>
-  <si>
-    <t>com.hs.common.orga.queryOrgInfo</t>
-  </si>
-  <si>
-    <t>orgid</t>
-  </si>
-  <si>
-    <t>员工兼职数据</t>
-  </si>
-  <si>
-    <t>com.hs.common.orga.queryEmpOrg</t>
-  </si>
-  <si>
-    <t>empId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hs.common.login.clearAndResetMenuCache.biz.ext</t>
+  </si>
+  <si>
+    <t>刷新菜单相关缓存数据</t>
+  </si>
+  <si>
+    <t>com.hsapi.system.tenant.employee.queryStockman.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -439,12 +607,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -459,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -472,6 +646,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -922,16 +1102,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="34.625" customWidth="1"/>
     <col min="3" max="3" width="43.875" customWidth="1"/>
     <col min="4" max="4" width="23.75" customWidth="1"/>
     <col min="5" max="5" width="18.625" customWidth="1"/>
@@ -1347,124 +1527,374 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" t="s">
         <v>86</v>
       </c>
-      <c r="C43" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>87</v>
-      </c>
-      <c r="E43" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" t="s">
         <v>89</v>
       </c>
-      <c r="D44" t="s">
-        <v>90</v>
-      </c>
       <c r="E44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" t="s">
         <v>92</v>
       </c>
-      <c r="D45" t="s">
-        <v>93</v>
-      </c>
       <c r="E45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="s">
         <v>97</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>98</v>
-      </c>
-      <c r="D47" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
         <v>101</v>
       </c>
-      <c r="C48" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
+      <c r="C49" t="s">
         <v>102</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
         <v>103</v>
       </c>
-      <c r="D49" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
+      <c r="C50" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
         <v>104</v>
       </c>
-      <c r="C50" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
+      <c r="C51" t="s">
         <v>105</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>106</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
         <v>107</v>
       </c>
-      <c r="E51" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
+      <c r="C52" t="s">
         <v>108</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>109</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A53" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A54" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E52" t="s">
-        <v>88</v>
+    </row>
+    <row r="55" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A55" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B56" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B57" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A58" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A59" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A60" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A61" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A62" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B63" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B64" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="54" x14ac:dyDescent="0.15">
+      <c r="B65" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B66" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B67" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B68" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B69" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A70" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B71" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B72" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B73" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B74" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B75" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B76" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B77" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B78" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B79" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B80" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B81" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B82" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B83" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B84" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B85" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B86" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B87" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B88" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B89" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B90" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B91" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B92" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B93" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B94" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B95" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B96" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/缓存列表.xlsx
+++ b/DOC/缓存列表.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="缓存列表" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="207">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -583,7 +583,192 @@
     <t>刷新菜单相关缓存数据</t>
   </si>
   <si>
+    <t>com.hsapi.system.dict.org.queryMember.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存统一用命名SQL的格式处理，DataObject会有很多XML标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.data.sys.getRedisCacheBasic.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从缓存中取值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果缓存中存在 组 + key，则取缓存；否则，从数据库中取值然后存到缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按 组 + key 清除缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.dict.org.queryMember.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.data.dictMgr.queryComMember
+com.hsapi.system.data.dictMgr.queryComMemberByEmpId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务技师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作组成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技师等级成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务顾问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购/仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领料人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empId员工信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">com.hsapi.system.data.dictMgr.queryComMember
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.data.dictMgr.queryComMemberByEmpId</t>
+  </si>
+  <si>
+    <t>params/orgid
+params/memberGroupId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/empId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/orgid
+params/isStockman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/orgid
+params/isPchsStock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/orgid
+params/isMtadvisor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/orgid
+params/memberLevelId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/orgid
+params/isArtificer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工员选择界面快速查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单选择服务顾问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价提醒，配件审核提醒到对应人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件出库选择领料人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工登录获取员工信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除缓存在哪个环节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增或是修改员工信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/orgid
+params/isSalesman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽贸里面销售员选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>com.hsapi.system.tenant.employee.queryStockman.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除员工相关缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.tenant.employee.clearMemberCache.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgid
+empId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除员工缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.dict.org.removeMemberCache.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工信息保存后清除所有员工相关的缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据条件清除员工缓存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,11 +818,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -652,6 +834,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -707,8 +901,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>342330</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>638175</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -745,8 +939,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>280482</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>600075</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -783,8 +977,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>552451</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>650474</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2774</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1102,9 +1296,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
@@ -1123,255 +1317,255 @@
       <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="2" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="2:7" ht="135" x14ac:dyDescent="0.15">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7" ht="54" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="2:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="2:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="F5" s="2"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="F6" s="2"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="2:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="2:7" ht="135" x14ac:dyDescent="0.15">
+      <c r="F8" s="2"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="2:7" ht="81" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="2:7" ht="81" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="2:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1379,43 +1573,43 @@
       <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4" t="s">
+      <c r="C16" s="1"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="189" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" ht="135" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1423,33 +1617,33 @@
       <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="C19" s="1"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="C20" s="1"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="C21" s="1"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="C22" s="1"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
@@ -1648,253 +1842,279 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="4" t="s">
+    <row r="55" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>112</v>
       </c>
       <c r="G55" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B56" s="3" t="s">
+    <row r="56" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B56" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B57" s="3" t="s">
+    <row r="57" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B57" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A58" s="4" t="s">
+    <row r="58" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A58" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="4" t="s">
+    <row r="59" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A59" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="4" t="s">
+    <row r="60" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A60" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A61" s="4" t="s">
+    <row r="61" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="4" t="s">
+    <row r="62" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A62" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B64" s="6" t="s">
+    <row r="64" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B64" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="54" x14ac:dyDescent="0.15">
-      <c r="B65" s="6" t="s">
+    <row r="65" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B65" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B66" s="2" t="s">
+    <row r="66" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B66" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B67" s="2" t="s">
+    <row r="67" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B67" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B68" s="2" t="s">
+    <row r="68" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B68" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B71" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B72" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B73" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B74" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B75" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B76" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B77" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B78" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B79" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B80" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B81" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B82" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B83" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B84" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B85" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B86" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B87" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B88" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B89" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B90" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B91" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B92" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B93" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B94" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B95" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B96" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A99" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="B101" s="1" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="B71" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="B72" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="B73" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="B74" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="B75" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="B76" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="B77" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="B78" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="B79" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="B80" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="B81" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="B82" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="B83" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="B84" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="B85" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="B86" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="B87" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="B88" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="B89" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="B90" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="B91" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="B92" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="B93" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="B94" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="B95" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="B96" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1911,12 +2131,249 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="51.875" customWidth="1"/>
+    <col min="4" max="4" width="53.375" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="35.375" customWidth="1"/>
+    <col min="7" max="7" width="30.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="9"/>
+      <c r="B3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="9"/>
+      <c r="B4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="9"/>
+      <c r="B5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="9"/>
+      <c r="B6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="9"/>
+      <c r="B7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="9"/>
+      <c r="B8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="9"/>
+      <c r="B9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" t="s">
+        <v>198</v>
+      </c>
+      <c r="G9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="9"/>
+      <c r="B10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="9"/>
+      <c r="B11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A11"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DOC/缓存列表.xlsx
+++ b/DOC/缓存列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="208">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -769,6 +769,10 @@
   </si>
   <si>
     <t>根据条件清除员工缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页的快捷方式缓存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1298,8 +1302,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1660,6 +1664,11 @@
         <v>84</v>
       </c>
     </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>207</v>
+      </c>
+    </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>20</v>
@@ -2133,7 +2142,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>

--- a/DOC/缓存列表.xlsx
+++ b/DOC/缓存列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="223">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -773,6 +773,66 @@
   </si>
   <si>
     <t>首页的快捷方式缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据登录账号获取员工信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.tenant.employee.saveEmployee.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存员工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开通或是关闭账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.tenant.employee.openOrCloseUser.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.tenant.employee.openOrCloseIM.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开通或是关闭IM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.data.dictMgr.queryComCompany</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/orgid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录时查询公司信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.dict.org.queryCompany.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改公司信息时清除缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询公司信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除公司缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.dict.org.removeCompanyCache.biz.ext</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1302,7 +1362,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -2140,15 +2200,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="51.875" customWidth="1"/>
     <col min="4" max="4" width="53.375" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
@@ -2379,9 +2439,76 @@
         <v>206</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="9"/>
+      <c r="B12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D16" t="s">
+        <v>215</v>
+      </c>
+      <c r="E16" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E17" t="s">
+        <v>216</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A2:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/缓存列表.xlsx
+++ b/DOC/缓存列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="257">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -503,9 +503,6 @@
     <t>com.hsapi.repair.baseData.team.queryWorkTeam.biz.ext</t>
   </si>
   <si>
-    <t>com.hsapi.system.dict.org.queryMember.biz.ext</t>
-  </si>
-  <si>
     <t>com.hsapi.system.tenant.user.getEmployeeByEmpId.biz.ext</t>
   </si>
   <si>
@@ -833,6 +830,148 @@
   </si>
   <si>
     <t>com.hsapi.system.dict.org.removeCompanyCache.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询兼职公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改公司信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.tenant.tenant.saveCompany.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hs.common.login.getEmpOrgs.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hs.common.orga.queryEmpOrg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录时查询员工兼职</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.part.common.svr.getOrgList.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemApi/com.hsapi.system.config.paramSet.saveBillParams.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemApi/com.hsapi.system.config.paramSet.saveBillParams.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存工单参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询工单参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemApi/com.hsapi.system.config.paramSet.queryBillParams.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemApi/com.hsapi.system.config.paramSet.queryBillParams.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除工单参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.config.paramSet.removeComParams.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.data.dictMgr.queryBillParams</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单参数有修改时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/orgid
+params/isDisabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询业务分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.repair.common.common.getBusinessType.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.dict.dictMgr.queryServiceType.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.data.dictMgr.getServiceType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询业务分类 缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存业务分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除业务分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.repair.baseData.crud.saveBusinessType.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.repair.baseData.crud.removeServiceTypeCache.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询客户级别 缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.data.dictMgr.getPartType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.data.dictMgr.getPartQuality
+com.hsapi.system.data.dictMgr.getPartBrand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.dict.dictMgr.queryPartType.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.dict.dictMgr.queryPartBrand.biz.ext</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1362,14 +1501,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.625" customWidth="1"/>
+    <col min="2" max="2" width="49.125" customWidth="1"/>
     <col min="3" max="3" width="43.875" customWidth="1"/>
     <col min="4" max="4" width="23.75" customWidth="1"/>
     <col min="5" max="5" width="18.625" customWidth="1"/>
@@ -1393,13 +1532,13 @@
     </row>
     <row r="2" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>15</v>
+        <v>230</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -1726,7 +1865,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -1793,7 +1932,7 @@
         <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D43" t="s">
         <v>86</v>
@@ -1912,10 +2051,10 @@
     </row>
     <row r="53" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -2027,7 +2166,7 @@
         <v>134</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="27" x14ac:dyDescent="0.15">
@@ -2035,19 +2174,19 @@
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B72" s="1" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B73" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B74" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="27" x14ac:dyDescent="0.15">
@@ -2057,133 +2196,133 @@
     </row>
     <row r="76" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B76" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B77" s="1" t="s">
-        <v>130</v>
+        <v>229</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B78" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B79" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B80" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="2:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B81" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="2:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B82" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="2:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B83" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="2:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B84" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85" spans="2:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B85" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86" spans="2:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B86" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87" spans="2:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B87" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" spans="2:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B88" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" spans="2:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B89" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90" spans="2:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B90" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91" spans="2:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92" spans="2:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B92" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="93" spans="2:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B93" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94" spans="2:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B94" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95" spans="2:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="96" spans="2:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B96" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A99" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="B101" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2200,10 +2339,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2218,7 +2357,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2236,279 +2375,506 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="C2" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="9"/>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" t="s">
         <v>197</v>
       </c>
-      <c r="F9" t="s">
-        <v>198</v>
-      </c>
       <c r="G9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="E10" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="F10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>204</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="9"/>
+      <c r="B13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="9"/>
+      <c r="B14" t="s">
         <v>210</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>211</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="9"/>
+      <c r="B15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D16" t="s">
         <v>214</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
+      <c r="E16" t="s">
+        <v>215</v>
+      </c>
+      <c r="F16" t="s">
+        <v>216</v>
+      </c>
+      <c r="G16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="9"/>
+      <c r="B17" t="s">
         <v>220</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C17" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D17" t="s">
+        <v>214</v>
+      </c>
+      <c r="E17" t="s">
         <v>215</v>
       </c>
-      <c r="E16" t="s">
-        <v>216</v>
-      </c>
-      <c r="F16" t="s">
-        <v>217</v>
-      </c>
-      <c r="G16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>221</v>
-      </c>
-      <c r="C17" s="7" t="s">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="9"/>
+      <c r="B18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="9"/>
+      <c r="B19" t="s">
         <v>222</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C19" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" t="s">
+        <v>226</v>
+      </c>
+      <c r="E19" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A21" s="9"/>
+      <c r="B21" t="s">
+        <v>235</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" s="9"/>
+      <c r="B22" t="s">
+        <v>238</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D22" t="s">
+        <v>240</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="9"/>
+      <c r="B23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="9"/>
+      <c r="B24" t="s">
+        <v>247</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D24" t="s">
+        <v>246</v>
+      </c>
+      <c r="E24" t="s">
         <v>215</v>
       </c>
-      <c r="E17" t="s">
-        <v>216</v>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="9"/>
+      <c r="B25" t="s">
+        <v>248</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A26" s="9"/>
+      <c r="B26" t="s">
+        <v>249</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D26" t="s">
+        <v>246</v>
+      </c>
+      <c r="E26" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>252</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>255</v>
+      </c>
+      <c r="D38" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>256</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A12"/>
+  <mergeCells count="3">
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="A2:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/缓存列表.xlsx
+++ b/DOC/缓存列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="305">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -971,7 +971,237 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>配件选择界面按配件分类查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>com.hsapi.system.dict.dictMgr.queryPartBrand.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.part.baseDataCrud.crud.savePartBrand.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件品牌保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件品牌查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.data.dictMgr.getPartBrand
+com.hsapi.part.common.stockquery.queryPartBrand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户级别查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.dict.dictMgr.querySelectGuestType.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户级别保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.data.dictMgr.getRpbGuestType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.repair.baseData.crud.saveGuestTypeAndDiscount.biz.ext</t>
+  </si>
+  <si>
+    <t>清除客户级别缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.dict.dictMgr.removeGuestTypeCache.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除配件品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.data.sys.removeCacheByName.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.dict.dictMgr.queryDict.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户来源查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户来源保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.dict.dictMgr.saveDictList.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.data.dictMgr.queryDictItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除数据字典缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.data.dictMgr.queryDictItem
+com.hsapi.system.data.dictMgr.queryDictItemTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/tenantId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询本租户的客户级别，只能修改本机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p/dictid
+p/orgid
+p/orgids
+p/tenantId
+p/tenantIds
+p/isDisabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及数据字典的，有的清除所有，有的清除本租户，有的清除本店；
+数据字典删除后，不用按组名清除缓存（不用removeCacheByName），只需要把所有可能的条件作为key，然后根据 组 + key 清除缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据字典条件一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据字典条件二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据字典条件三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据字典条件四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p/dictid = 有值
+p/orgid = 有值
+p/orgids = 空
+p/tenantId = 空
+p/tenantIds = 空
+p/isDisabled = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p/dictid = 有值
+p/orgid = 空
+p/orgids = 有值
+p/tenantId = 空
+p/tenantIds = 空
+p/isDisabled = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p/dictid = 有值
+p/orgid = 空
+p/orgids = 空
+p/tenantId = 有值
+p/tenantIds = 空
+p/isDisabled = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p/dictid = 有值
+p/orgid = 空
+p/orgids = 空
+p/tenantId = 空
+p/tenantIds = 有值
+p/isDisabled = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.data.sys.removeRedisCacheBasic.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p/dictid = 有值
+p/orgid
+p/orgids
+p/tenantId
+p/tenantIds = 有值
+p/isDisabled （维护不值，缓存传0）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询tenantId=0和本租户，只能修改本机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据字典条件五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p/dictid = 有值
+p/orgid = 空
+p/orgids = 空
+p/tenantId = 空
+p/tenantIds = 空
+p/isDisabled = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查车模板详细内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.repair.baseData.query.queryCheckModelDetail.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.repair.baseData.query.queryCheckDetailById</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/mainId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查车模板查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.repair.baseData.query.queryCheckModel.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.repair.baseData.query.queryOrgCheckMain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询连锁共享或本店，只能修改本机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p/tenantId
+p/orgid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1039,13 +1269,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1520,12 +1750,12 @@
       <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
       <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
@@ -2094,7 +2324,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
         <v>120</v>
       </c>
@@ -2141,7 +2371,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B66" s="1" t="s">
         <v>130</v>
       </c>
@@ -2209,7 +2439,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B79" s="1" t="s">
         <v>140</v>
       </c>
@@ -2224,7 +2454,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B82" s="1" t="s">
         <v>143</v>
       </c>
@@ -2254,7 +2484,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="88" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B88" s="1" t="s">
         <v>149</v>
       </c>
@@ -2284,17 +2514,17 @@
         <v>154</v>
       </c>
     </row>
-    <row r="94" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B94" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="95" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="96" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B96" s="1" t="s">
         <v>157</v>
       </c>
@@ -2320,7 +2550,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B101" s="1" t="s">
         <v>161</v>
       </c>
@@ -2339,10 +2569,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2382,13 +2612,13 @@
       <c r="A2" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>178</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -2406,10 +2636,10 @@
       <c r="B3" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>178</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -2427,10 +2657,10 @@
       <c r="B4" t="s">
         <v>173</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>178</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -2448,10 +2678,10 @@
       <c r="B5" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>178</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -2469,10 +2699,10 @@
       <c r="B6" t="s">
         <v>175</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>178</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -2490,10 +2720,10 @@
       <c r="B7" t="s">
         <v>176</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>178</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2511,7 +2741,7 @@
       <c r="B8" t="s">
         <v>177</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>167</v>
       </c>
       <c r="D8" t="s">
@@ -2532,10 +2762,10 @@
       <c r="B9" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>178</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -2553,7 +2783,7 @@
       <c r="B10" t="s">
         <v>199</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>200</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -2568,7 +2798,7 @@
       <c r="B11" t="s">
         <v>202</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>203</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2583,7 +2813,7 @@
       <c r="B12" t="s">
         <v>207</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2592,7 +2822,7 @@
       <c r="B13" t="s">
         <v>209</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2610,7 +2840,7 @@
       <c r="B15" t="s">
         <v>213</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2621,7 +2851,7 @@
       <c r="B16" t="s">
         <v>219</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>217</v>
       </c>
       <c r="D16" t="s">
@@ -2642,7 +2872,7 @@
       <c r="B17" t="s">
         <v>220</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>221</v>
       </c>
       <c r="D17" t="s">
@@ -2657,7 +2887,7 @@
       <c r="B18" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>224</v>
       </c>
     </row>
@@ -2666,7 +2896,7 @@
       <c r="B19" t="s">
         <v>222</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>225</v>
       </c>
       <c r="D19" t="s">
@@ -2686,7 +2916,7 @@
       <c r="B20" t="s">
         <v>234</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>233</v>
       </c>
     </row>
@@ -2695,7 +2925,7 @@
       <c r="B21" t="s">
         <v>235</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>237</v>
       </c>
     </row>
@@ -2704,7 +2934,7 @@
       <c r="B22" t="s">
         <v>238</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>239</v>
       </c>
       <c r="D22" t="s">
@@ -2722,7 +2952,7 @@
       <c r="B23" t="s">
         <v>243</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2731,7 +2961,7 @@
       <c r="B24" t="s">
         <v>247</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>245</v>
       </c>
       <c r="D24" t="s">
@@ -2746,7 +2976,7 @@
       <c r="B25" t="s">
         <v>248</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>250</v>
       </c>
     </row>
@@ -2755,7 +2985,7 @@
       <c r="B26" t="s">
         <v>249</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>251</v>
       </c>
       <c r="D26" t="s">
@@ -2775,98 +3005,311 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D28" t="s">
+        <v>266</v>
+      </c>
+      <c r="E28" t="s">
+        <v>279</v>
+      </c>
+      <c r="F28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>42</v>
+        <v>268</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D30" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>43</v>
+        <v>273</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D31" t="s">
+        <v>276</v>
+      </c>
+      <c r="F31" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
+        <v>274</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="2:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>277</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>283</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D35" t="s">
+        <v>276</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>284</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D36" t="s">
+        <v>276</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>285</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D37" t="s">
+        <v>276</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>286</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D38" t="s">
+        <v>276</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>294</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D39" t="s">
+        <v>276</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D40" t="s">
+        <v>276</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F40" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
+      <c r="C43" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D43" t="s">
+        <v>276</v>
+      </c>
+      <c r="F43" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>300</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D44" t="s">
+        <v>302</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F44" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>296</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D45" t="s">
+        <v>298</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
         <v>8</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C51" t="s">
         <v>255</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D51" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="F51" t="s">
         <v>256</v>
       </c>
-      <c r="D39" s="1" t="s">
+    </row>
+    <row r="52" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
+        <v>260</v>
+      </c>
+      <c r="C52" t="s">
+        <v>257</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B40" t="s">
+    <row r="53" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>259</v>
+      </c>
+      <c r="C53" t="s">
+        <v>258</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
+        <v>270</v>
+      </c>
+      <c r="C54" t="s">
+        <v>271</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B42" t="s">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B43" t="s">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B44" t="s">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
         <v>19</v>
       </c>
     </row>

--- a/DOC/缓存列表.xlsx
+++ b/DOC/缓存列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="312">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1202,6 +1202,34 @@
   <si>
     <t>p/tenantId
 p/orgid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.repair.baseData.query.queryCheckDetailContentById</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查车备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/checkDetailId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.repair.baseData.query.queryCheckModelDetailContent.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查车模板保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查车模板详细内容保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查车备注保存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2569,10 +2597,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3207,109 +3235,143 @@
         <v>303</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
+        <v>309</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
         <v>296</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>298</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
+        <v>310</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>48</v>
+        <v>306</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D48" t="s">
+        <v>305</v>
+      </c>
+      <c r="E48" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
-        <v>49</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="C49" s="1"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
         <v>8</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C54" t="s">
         <v>255</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D54" t="s">
         <v>253</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F54" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B52" t="s">
+    <row r="55" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
         <v>260</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C55" t="s">
         <v>257</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="53" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B53" t="s">
+    <row r="56" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
         <v>259</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C56" t="s">
         <v>258</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B54" t="s">
+    <row r="57" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
         <v>270</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C57" t="s">
         <v>271</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B56" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B57" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B62" t="s">
         <v>19</v>
       </c>
     </row>

--- a/DOC/缓存列表.xlsx
+++ b/DOC/缓存列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="396">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1230,6 +1230,369 @@
   </si>
   <si>
     <t>查车备注保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.dict.dictMgr.saveDict.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.repair.baseData.crud.saveCheckModel.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除模板缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.repair.baseData.crud.initTenantOrgCheckModel.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.repair.baseData.crud.saveCheckDetail.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除模板详细缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除模板备注缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hs.common.login.clearAndResetCache.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>po/mainId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pt/checkDetailId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工员中的分类查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存工作组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.repair.baseData.team.saveWorkTeam.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.repair.baseData.team.getRepairGroup.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及工作组和技师等级
+工作组和技师等级的修改需要刷新缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.repair.baseData.team.getGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/orgid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.repair.baseData.team.saveMemberLevel.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.part.baseDataCrud.crud.queryStore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.part.baseDataCrud.crud.getStorehouse.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.part.baseDataCrud.crud.saveStorehouse.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除仓库缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.tenant.permissionsMgr.queryMemStore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除员工仓库缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p/empId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.part.common.stockquery.queryStoreLocation</t>
+  </si>
+  <si>
+    <t>com.hsapi.part.common.stockquery.queryStoreLocation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除仓位缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p/storeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件品质品牌查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.part.common.svr.getAllPartBrand.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.part.common.stockquery.queryPartQuality
+com.hsapi.part.common.stockquery.queryPartBrand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.tenant.employee.queryMemStore.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工仓库查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/empId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.tenant.permissionsMgr.queryMemStore
+com.hsapi.part.baseDataCrud.crud.queryStore（为空则显示所有）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.part.common.svr.getLocationListByStoreId.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询仓库对应的仓位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/storeId</t>
+  </si>
+  <si>
+    <t>com.hsapi.frm.setting.saveFiSettleAccount.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.frm.setting.saveFiSettleAccountBatch.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收支项目缓存处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.frm.frmSetting.queryFibSettleAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除结算账户缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.frm.frmSetting.queryFibSettleAccountRela</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算账户对应的结算方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/accountId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.frm.frmService.crud.queryDefaultSettleAccount.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认账户查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认账户不缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.frm.setting.queryAccountSettleType.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.frm.frmService.crud.saveFiSettleAccountBatch.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.frm.frmService.crud.saveFiSettleAccount.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.frm.frmSetting.queryFibSettleAccount
+com.hsapi.frm.frmSetting.queryFibSettleAccountRela</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用/启用结算账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.frm.setting.updateFiSettleAccountDisabled.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.frm.frmSetting.queryFibIncomeExpenses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/orgid 有值
+params/itemTypeId
+params/isMain
+params/isSale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/orgid 有值
+params/itemTypeId 1
+params/isMain
+params/isSale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/orgid 有值
+params/itemTypeId -1
+params/isMain
+params/isSale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/orgid 有值
+params/itemTypeId 1
+params/isMain 1
+params/isSale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/orgid 有值
+params/itemTypeId -1
+params/isMain 1
+params/isSale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/orgid 有值
+params/itemTypeId
+params/isMain 1
+params/isSale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有主业务类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有非主业务类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有收入类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有支出类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有收入类主业务类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有支出类主业务类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/orgid 有值
+params/itemTypeId -1
+params/isMain 0
+params/isSale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/orgid 有值
+params/itemTypeId 1
+params/isMain 0
+params/isSale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有收入类非主业务类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有支出类非主业务类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.frm.frmService.crud.queryFibInComeExpenses.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询收支项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.frm.frmService.crud.saveFibInComeExpenses.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收支项目修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.dict.dictMgr.queryDictTypeTree.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/orgid
+params/rootid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.data.dictMgr.queryDictItemTree</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2597,10 +2960,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="B86" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B91" sqref="A88:XFD91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3090,7 +3453,9 @@
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="34" spans="2:6" ht="81" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
@@ -3235,144 +3600,510 @@
         <v>303</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>309</v>
       </c>
-      <c r="C45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
+        <v>314</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D46" t="s">
+        <v>302</v>
+      </c>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
         <v>296</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>298</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B47" t="s">
-        <v>310</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="E47" s="1"/>
     </row>
     <row r="48" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
+        <v>310</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
         <v>306</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>305</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E49" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" t="s">
+    <row r="50" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
         <v>311</v>
       </c>
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" t="s">
-        <v>46</v>
+      <c r="C50" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>48</v>
+        <v>317</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D51" t="s">
+        <v>298</v>
+      </c>
+      <c r="E51" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>49</v>
+        <v>318</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D52" t="s">
+        <v>305</v>
+      </c>
+      <c r="E52" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
-        <v>50</v>
+        <v>324</v>
+      </c>
+      <c r="C53" t="s">
+        <v>325</v>
+      </c>
+      <c r="D53" t="s">
+        <v>328</v>
+      </c>
+      <c r="E53" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C54" t="s">
-        <v>255</v>
+        <v>330</v>
       </c>
       <c r="D54" t="s">
-        <v>253</v>
-      </c>
-      <c r="F54" t="s">
-        <v>256</v>
+        <v>328</v>
+      </c>
+      <c r="E54" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="55" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
-        <v>260</v>
+        <v>323</v>
       </c>
       <c r="C55" t="s">
-        <v>257</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+        <v>326</v>
+      </c>
+      <c r="E55" t="s">
+        <v>329</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>258</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
+      </c>
+      <c r="D56" t="s">
+        <v>253</v>
+      </c>
+      <c r="F56" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
+        <v>260</v>
+      </c>
+      <c r="C57" t="s">
+        <v>257</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>259</v>
+      </c>
+      <c r="C58" t="s">
+        <v>258</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>344</v>
+      </c>
+      <c r="C59" t="s">
+        <v>345</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
         <v>270</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C60" t="s">
         <v>271</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B58" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B59" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B60" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
-        <v>14</v>
+        <v>333</v>
+      </c>
+      <c r="C61" t="s">
+        <v>332</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E61" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
-        <v>19</v>
+        <v>334</v>
+      </c>
+      <c r="C62" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
+        <v>336</v>
+      </c>
+      <c r="C63" t="s">
+        <v>319</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E63" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B64" t="s">
+        <v>338</v>
+      </c>
+      <c r="C64" t="s">
+        <v>319</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E64" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B65" t="s">
+        <v>342</v>
+      </c>
+      <c r="C65" t="s">
+        <v>319</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E65" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
+        <v>348</v>
+      </c>
+      <c r="C66" t="s">
+        <v>347</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E66" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
+        <v>352</v>
+      </c>
+      <c r="C67" t="s">
+        <v>351</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E67" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B68" t="s">
+        <v>261</v>
+      </c>
+      <c r="C68" t="s">
+        <v>354</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C69" t="s">
+        <v>355</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B70" t="s">
+        <v>363</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
+        <v>360</v>
+      </c>
+      <c r="C71" t="s">
+        <v>365</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E71" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B72" t="s">
+        <v>358</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C73" t="s">
+        <v>367</v>
+      </c>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="C74" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="C75" t="s">
+        <v>291</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B76" t="s">
+        <v>369</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="B77" t="s">
+        <v>356</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F77" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F78" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F79" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="B80">
+        <v>4</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F80" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F81" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="B82">
+        <v>6</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F82" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="B83">
+        <v>7</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F83" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="B84">
+        <v>8</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F84" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="B85">
+        <v>9</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F85" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B86" t="s">
+        <v>390</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D86" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B87" t="s">
+        <v>392</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
+        <v>322</v>
+      </c>
+      <c r="C88" t="s">
+        <v>393</v>
+      </c>
+      <c r="D88" t="s">
+        <v>395</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/缓存列表.xlsx
+++ b/DOC/缓存列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="400">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1593,6 +1593,22 @@
   </si>
   <si>
     <t>com.hsapi.system.data.dictMgr.queryDictItemTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询员工兼职</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hs.common.login.getEmpOrgs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hs.common.orga.queryEmpOrg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/empId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2960,10 +2976,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B86" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B91" sqref="A88:XFD91"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3220,164 +3236,159 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C14" t="s">
-        <v>211</v>
+        <v>396</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="D14" t="s">
+        <v>398</v>
+      </c>
+      <c r="E14" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
-      <c r="B15" t="s">
-        <v>213</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>212</v>
-      </c>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="9" t="s">
-        <v>228</v>
-      </c>
+      <c r="A16" s="9"/>
       <c r="B16" t="s">
-        <v>219</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D16" t="s">
-        <v>214</v>
-      </c>
-      <c r="E16" t="s">
-        <v>215</v>
-      </c>
-      <c r="F16" t="s">
-        <v>216</v>
-      </c>
-      <c r="G16" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+      <c r="C16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
       <c r="B17" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" t="s">
         <v>214</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
-      <c r="B18" t="s">
-        <v>223</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F18" t="s">
+        <v>216</v>
+      </c>
+      <c r="G18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
       <c r="B19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D19" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="E19" t="s">
-        <v>181</v>
-      </c>
-      <c r="F19" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A20" s="9" t="s">
-        <v>231</v>
-      </c>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="9"/>
       <c r="B20" t="s">
-        <v>234</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>223</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
       <c r="B21" t="s">
-        <v>235</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="9"/>
+        <v>222</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D21" t="s">
+        <v>226</v>
+      </c>
+      <c r="E21" t="s">
+        <v>181</v>
+      </c>
+      <c r="F21" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" s="9" t="s">
+        <v>231</v>
+      </c>
       <c r="B22" t="s">
-        <v>238</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D22" t="s">
-        <v>240</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="F22" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+        <v>234</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="9"/>
       <c r="B23" t="s">
-        <v>243</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="9"/>
       <c r="B24" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D24" t="s">
-        <v>246</v>
-      </c>
-      <c r="E24" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+        <v>240</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="9"/>
       <c r="B25" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="9"/>
       <c r="B26" t="s">
-        <v>249</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="D26" t="s">
         <v>246</v>
@@ -3386,125 +3397,121 @@
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="9"/>
       <c r="B27" t="s">
+        <v>248</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A28" s="9"/>
+      <c r="B28" t="s">
+        <v>249</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D28" t="s">
+        <v>246</v>
+      </c>
+      <c r="E28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
         <v>252</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
         <v>263</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>264</v>
-      </c>
-      <c r="D28" t="s">
-        <v>266</v>
-      </c>
-      <c r="E28" t="s">
-        <v>279</v>
-      </c>
-      <c r="F28" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
-        <v>265</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
-        <v>268</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="D30" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E30" t="s">
+        <v>279</v>
+      </c>
+      <c r="F30" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
+        <v>265</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>268</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D32" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
         <v>273</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D33" t="s">
         <v>276</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F33" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
         <v>274</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C33" s="1" t="s">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C35" s="1" t="s">
         <v>312</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
-        <v>277</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
-        <v>283</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D35" t="s">
-        <v>276</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="81" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D36" t="s">
-        <v>276</v>
+        <v>271</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="81" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>291</v>
@@ -3513,12 +3520,12 @@
         <v>276</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="81" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>291</v>
@@ -3527,12 +3534,12 @@
         <v>276</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="81" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>291</v>
@@ -3541,287 +3548,293 @@
         <v>276</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="94.5" x14ac:dyDescent="0.15">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="81" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="D40" t="s">
         <v>276</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>294</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D41" t="s">
+        <v>276</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D42" t="s">
+        <v>276</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F42" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B42" t="s">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B43" t="s">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D45" t="s">
         <v>276</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F45" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="44" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B44" t="s">
-        <v>300</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D44" t="s">
-        <v>302</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F44" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B45" t="s">
-        <v>309</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E45" s="1"/>
     </row>
     <row r="46" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="D46" t="s">
         <v>302</v>
       </c>
-      <c r="E46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F46" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="47" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D47" t="s">
-        <v>298</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>299</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="E47" s="1"/>
     </row>
     <row r="48" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
+      </c>
+      <c r="D48" t="s">
+        <v>302</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D49" t="s">
-        <v>305</v>
-      </c>
-      <c r="E49" t="s">
-        <v>307</v>
+        <v>298</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="D51" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="E51" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D52" t="s">
-        <v>305</v>
-      </c>
-      <c r="E52" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
-        <v>324</v>
-      </c>
-      <c r="C53" t="s">
-        <v>325</v>
+        <v>317</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="D53" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="E53" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C54" t="s">
-        <v>330</v>
+        <v>318</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="D54" t="s">
+        <v>305</v>
+      </c>
+      <c r="E54" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
+        <v>324</v>
+      </c>
+      <c r="C55" t="s">
+        <v>325</v>
+      </c>
+      <c r="D55" t="s">
         <v>328</v>
-      </c>
-      <c r="E54" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B55" t="s">
-        <v>323</v>
-      </c>
-      <c r="C55" t="s">
-        <v>326</v>
       </c>
       <c r="E55" t="s">
         <v>329</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>327</v>
-      </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C56" t="s">
-        <v>255</v>
+        <v>330</v>
       </c>
       <c r="D56" t="s">
-        <v>253</v>
-      </c>
-      <c r="F56" t="s">
-        <v>256</v>
+        <v>328</v>
+      </c>
+      <c r="E56" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
-        <v>260</v>
+        <v>323</v>
       </c>
       <c r="C57" t="s">
-        <v>257</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+        <v>326</v>
+      </c>
+      <c r="E57" t="s">
+        <v>329</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>258</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
+      </c>
+      <c r="D58" t="s">
+        <v>253</v>
+      </c>
+      <c r="F58" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="59" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
-        <v>344</v>
+        <v>260</v>
       </c>
       <c r="C59" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>346</v>
+        <v>254</v>
       </c>
     </row>
     <row r="60" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C60" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="C61" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E61" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
-        <v>334</v>
+        <v>270</v>
       </c>
       <c r="C62" t="s">
-        <v>335</v>
+        <v>271</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C63" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>331</v>
@@ -3832,285 +3845,307 @@
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C64" t="s">
-        <v>319</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E64" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C65" t="s">
         <v>319</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="E65" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C66" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="E66" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
+        <v>342</v>
+      </c>
+      <c r="C67" t="s">
+        <v>319</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E67" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B68" t="s">
+        <v>348</v>
+      </c>
+      <c r="C68" t="s">
+        <v>347</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E68" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
         <v>352</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C69" t="s">
         <v>351</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E69" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B68" t="s">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B70" t="s">
         <v>261</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C70" t="s">
         <v>354</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C69" t="s">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C71" t="s">
         <v>355</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="70" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B70" t="s">
+    <row r="72" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B72" t="s">
         <v>363</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B71" t="s">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B73" t="s">
         <v>360</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C73" t="s">
         <v>365</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E73" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B72" t="s">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B74" t="s">
         <v>358</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C73" t="s">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C75" t="s">
         <v>367</v>
       </c>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="C74" s="1" t="s">
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="C76" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="C75" t="s">
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="C77" t="s">
         <v>291</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="76" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B76" t="s">
+    <row r="78" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B78" t="s">
         <v>369</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="77" spans="2:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="B77" t="s">
+    <row r="79" spans="2:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="B79" t="s">
         <v>356</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F79" t="s">
         <v>378</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="B78">
-        <v>2</v>
-      </c>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="F78" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="B79">
-        <v>3</v>
-      </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="F79" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="54" x14ac:dyDescent="0.15">
       <c r="B80">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D80" s="1"/>
       <c r="E80" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F80" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="81" spans="2:6" ht="54" x14ac:dyDescent="0.15">
       <c r="B81">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D81" s="1"/>
       <c r="E81" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F81" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="82" spans="2:6" ht="54" x14ac:dyDescent="0.15">
       <c r="B82">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F82" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="83" spans="2:6" ht="54" x14ac:dyDescent="0.15">
       <c r="B83">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F83" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="84" spans="2:6" ht="54" x14ac:dyDescent="0.15">
       <c r="B84">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="F84" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="85" spans="2:6" ht="54" x14ac:dyDescent="0.15">
       <c r="B85">
+        <v>7</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F85" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="B86">
+        <v>8</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F86" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="B87">
         <v>9</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F87" t="s">
         <v>388</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B86" t="s">
-        <v>390</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="D86" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B87" t="s">
-        <v>392</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="88" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
+        <v>390</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D88" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B89" t="s">
+        <v>392</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B90" t="s">
         <v>322</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C90" t="s">
         <v>393</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D90" t="s">
         <v>395</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>394</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="A2:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/缓存列表.xlsx
+++ b/DOC/缓存列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="403">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1609,6 +1609,18 @@
   </si>
   <si>
     <t>params/empId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hs.common.login.clearAndResetMenuCache.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除菜单权限缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2138,7 +2150,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B21" sqref="B21:B22"/>
     </sheetView>
   </sheetViews>
@@ -2976,10 +2988,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4030,7 +4042,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="81" spans="2:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="B81">
         <v>3</v>
       </c>
@@ -4042,7 +4054,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="82" spans="2:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="B82">
         <v>4</v>
       </c>
@@ -4053,7 +4065,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="83" spans="2:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="B83">
         <v>5</v>
       </c>
@@ -4064,7 +4076,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="84" spans="2:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="B84">
         <v>6</v>
       </c>
@@ -4075,7 +4087,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="85" spans="2:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="B85">
         <v>7</v>
       </c>
@@ -4086,7 +4098,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="86" spans="2:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="B86">
         <v>8</v>
       </c>
@@ -4097,7 +4109,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="87" spans="2:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="B87">
         <v>9</v>
       </c>
@@ -4108,7 +4120,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="88" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
         <v>390</v>
       </c>
@@ -4119,7 +4131,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="89" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B89" t="s">
         <v>392</v>
       </c>
@@ -4127,7 +4139,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="90" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B90" t="s">
         <v>322</v>
       </c>
@@ -4139,6 +4151,17 @@
       </c>
       <c r="E90" s="1" t="s">
         <v>394</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>402</v>
+      </c>
+      <c r="B91" t="s">
+        <v>401</v>
+      </c>
+      <c r="C91" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/缓存列表.xlsx
+++ b/DOC/缓存列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="441">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1621,6 +1621,162 @@
   </si>
   <si>
     <t>权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hs.common.orga.queryUserRoles</t>
+  </si>
+  <si>
+    <t>根据用户ID获取用户对应角色ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据角色ID获取角色对应资源ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/roleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据资源ID获取资源对应的资源详情</t>
+  </si>
+  <si>
+    <t>params/resId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源表对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源表关联菜单后的输出对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取菜单结构</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取资源数据表数据</t>
+  </si>
+  <si>
+    <t>菜单表对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取所有资源信息</t>
+  </si>
+  <si>
+    <t>新增资源且新增菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/orgid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司表对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据orgid获取机构信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/empId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.basic.organization.saveMyCompany.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除员工兼职数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.basic.organization.deletExistCompany.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加员工兼职数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布新的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hs.common.orga.queryAppFunction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hs.common.orga.queryComAppFunction  权5
+com.hs.common.orga.queryAppFunction  权4
+com.hs.common.orga.queryResInfo  权2
+com.hs.common.orga.queryAppFunctionInfo  权1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.tenant.permissions.deleteApplications.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要删除所有租户的可维护功能及对应角色的权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.tenant.permissions.updateFunction.biz.ext
+com.hs.common.login.clearAndResetCache 清除并重新设置缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">com_tenant_menu
+com.hs.common.orga.queryComAppFunction  权5
+com.hs.common.orga.queryAppFunction  权4
+com.hs.common.orga.queryResInfo  权2
+com.hs.common.orga.queryAppFunctionInfo  权1
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除某些租户的资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.tenant.permissions.syncTenantRes.biz.ext</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2988,15 +3144,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
     <col min="3" max="3" width="51.875" customWidth="1"/>
     <col min="4" max="4" width="53.375" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
@@ -4162,6 +4319,202 @@
       </c>
       <c r="C91" t="s">
         <v>400</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B92" t="s">
+        <v>404</v>
+      </c>
+      <c r="D92" t="s">
+        <v>403</v>
+      </c>
+      <c r="E92" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B93" t="s">
+        <v>406</v>
+      </c>
+      <c r="D93" t="s">
+        <v>88</v>
+      </c>
+      <c r="E93" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B94" t="s">
+        <v>408</v>
+      </c>
+      <c r="C94" t="s">
+        <v>427</v>
+      </c>
+      <c r="D94" t="s">
+        <v>91</v>
+      </c>
+      <c r="E94" t="s">
+        <v>409</v>
+      </c>
+      <c r="F94" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B95" t="s">
+        <v>408</v>
+      </c>
+      <c r="C95" t="s">
+        <v>428</v>
+      </c>
+      <c r="D95" t="s">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>409</v>
+      </c>
+      <c r="F95" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B96" t="s">
+        <v>412</v>
+      </c>
+      <c r="C96" t="s">
+        <v>429</v>
+      </c>
+      <c r="D96" t="s">
+        <v>97</v>
+      </c>
+      <c r="E96" t="s">
+        <v>413</v>
+      </c>
+      <c r="F96" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B97" t="s">
+        <v>414</v>
+      </c>
+      <c r="C97" t="s">
+        <v>430</v>
+      </c>
+      <c r="D97" t="s">
+        <v>432</v>
+      </c>
+      <c r="E97" t="s">
+        <v>413</v>
+      </c>
+      <c r="F97" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B98" t="s">
+        <v>416</v>
+      </c>
+      <c r="C98" t="s">
+        <v>431</v>
+      </c>
+      <c r="D98" t="s">
+        <v>102</v>
+      </c>
+      <c r="E98" t="s">
+        <v>413</v>
+      </c>
+      <c r="F98" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B99" t="s">
+        <v>420</v>
+      </c>
+      <c r="D99" t="s">
+        <v>105</v>
+      </c>
+      <c r="E99" t="s">
+        <v>418</v>
+      </c>
+      <c r="F99" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B100" t="s">
+        <v>107</v>
+      </c>
+      <c r="D100" t="s">
+        <v>108</v>
+      </c>
+      <c r="E100" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B101" t="s">
+        <v>425</v>
+      </c>
+      <c r="C101" t="s">
+        <v>422</v>
+      </c>
+      <c r="D101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E101" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B102" t="s">
+        <v>423</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D102" t="s">
+        <v>108</v>
+      </c>
+      <c r="E102" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="B103" t="s">
+        <v>417</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F103" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="B104" t="s">
+        <v>434</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F104" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B105" t="s">
+        <v>439</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/缓存列表.xlsx
+++ b/DOC/缓存列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="445">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1777,6 +1777,23 @@
   </si>
   <si>
     <t>com.hsapi.system.tenant.permissions.syncTenantRes.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页快捷菜单缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.employee.employeeMgr.savehomePage.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.employee.employee.queryHomePage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/orgid
+params/userId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3144,11 +3161,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4311,7 +4328,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A91" t="s">
+      <c r="A91" s="9" t="s">
         <v>402</v>
       </c>
       <c r="B91" t="s">
@@ -4322,6 +4339,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A92" s="9"/>
       <c r="B92" t="s">
         <v>404</v>
       </c>
@@ -4333,6 +4351,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A93" s="9"/>
       <c r="B93" t="s">
         <v>406</v>
       </c>
@@ -4344,6 +4363,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94" s="9"/>
       <c r="B94" t="s">
         <v>408</v>
       </c>
@@ -4361,6 +4381,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A95" s="9"/>
       <c r="B95" t="s">
         <v>408</v>
       </c>
@@ -4378,6 +4399,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96" s="9"/>
       <c r="B96" t="s">
         <v>412</v>
       </c>
@@ -4394,7 +4416,8 @@
         <v>415</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97" s="9"/>
       <c r="B97" t="s">
         <v>414</v>
       </c>
@@ -4411,7 +4434,8 @@
         <v>410</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" s="9"/>
       <c r="B98" t="s">
         <v>416</v>
       </c>
@@ -4428,7 +4452,8 @@
         <v>411</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" s="9"/>
       <c r="B99" t="s">
         <v>420</v>
       </c>
@@ -4442,7 +4467,8 @@
         <v>419</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A100" s="9"/>
       <c r="B100" t="s">
         <v>107</v>
       </c>
@@ -4453,7 +4479,8 @@
         <v>421</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A101" s="9"/>
       <c r="B101" t="s">
         <v>425</v>
       </c>
@@ -4467,7 +4494,8 @@
         <v>421</v>
       </c>
     </row>
-    <row r="102" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A102" s="9"/>
       <c r="B102" t="s">
         <v>423</v>
       </c>
@@ -4481,7 +4509,8 @@
         <v>421</v>
       </c>
     </row>
-    <row r="103" spans="2:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A103" s="9"/>
       <c r="B103" t="s">
         <v>417</v>
       </c>
@@ -4495,7 +4524,8 @@
         <v>426</v>
       </c>
     </row>
-    <row r="104" spans="2:6" ht="81" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A104" s="9"/>
       <c r="B104" t="s">
         <v>434</v>
       </c>
@@ -4509,7 +4539,8 @@
         <v>436</v>
       </c>
     </row>
-    <row r="105" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A105" s="9"/>
       <c r="B105" t="s">
         <v>439</v>
       </c>
@@ -4517,11 +4548,26 @@
         <v>440</v>
       </c>
     </row>
+    <row r="106" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B106" t="s">
+        <v>441</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D106" t="s">
+        <v>443</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A91:A105"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/缓存列表.xlsx
+++ b/DOC/缓存列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="446">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1635,15 +1635,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>根据角色ID获取角色对应资源ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>params/roleId</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据资源ID获取资源对应的资源详情</t>
   </si>
   <si>
     <t>params/resId</t>
@@ -1776,10 +1769,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>com.hsapi.system.tenant.permissions.syncTenantRes.biz.ext</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>首页快捷菜单缓存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1794,6 +1783,22 @@
   <si>
     <t>params/orgid
 params/userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.tenant.permissions.syncTenantRes.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据角色ID获取角色对应资源ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据资源ID获取资源对应的资源详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源表对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1817,7 +1822,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1827,6 +1832,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1843,7 +1854,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1872,6 +1883,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3164,8 +3176,8 @@
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E107" sqref="E107"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4340,7 +4352,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="9"/>
-      <c r="B92" t="s">
+      <c r="B92" s="10" t="s">
         <v>404</v>
       </c>
       <c r="D92" t="s">
@@ -4352,119 +4364,119 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="9"/>
-      <c r="B93" t="s">
-        <v>406</v>
+      <c r="B93" s="10" t="s">
+        <v>443</v>
       </c>
       <c r="D93" t="s">
         <v>88</v>
       </c>
       <c r="E93" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="9"/>
-      <c r="B94" t="s">
-        <v>408</v>
+      <c r="B94" s="10" t="s">
+        <v>444</v>
       </c>
       <c r="C94" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D94" t="s">
         <v>91</v>
       </c>
       <c r="E94" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F94" t="s">
-        <v>410</v>
+        <v>445</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="9"/>
       <c r="B95" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="C95" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D95" t="s">
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>407</v>
+      </c>
+      <c r="F95" t="s">
         <v>409</v>
-      </c>
-      <c r="F95" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="9"/>
       <c r="B96" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C96" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D96" t="s">
         <v>97</v>
       </c>
       <c r="E96" t="s">
+        <v>411</v>
+      </c>
+      <c r="F96" t="s">
         <v>413</v>
-      </c>
-      <c r="F96" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="9"/>
       <c r="B97" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C97" t="s">
+        <v>428</v>
+      </c>
+      <c r="D97" t="s">
         <v>430</v>
       </c>
-      <c r="D97" t="s">
-        <v>432</v>
-      </c>
       <c r="E97" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F97" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="9"/>
       <c r="B98" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C98" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D98" t="s">
         <v>102</v>
       </c>
       <c r="E98" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F98" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="9"/>
       <c r="B99" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D99" t="s">
         <v>105</v>
       </c>
       <c r="E99" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F99" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
@@ -4476,90 +4488,90 @@
         <v>108</v>
       </c>
       <c r="E100" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="9"/>
       <c r="B101" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C101" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D101" t="s">
         <v>108</v>
       </c>
       <c r="E101" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A102" s="9"/>
       <c r="B102" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D102" t="s">
         <v>108</v>
       </c>
       <c r="E102" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A103" s="9"/>
       <c r="B103" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F103" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A104" s="9"/>
       <c r="B104" t="s">
+        <v>432</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F104" t="s">
         <v>434</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="F104" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A105" s="9"/>
       <c r="B105" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B106" t="s">
+        <v>438</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D106" t="s">
+        <v>440</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="D106" t="s">
-        <v>443</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>444</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/缓存列表.xlsx
+++ b/DOC/缓存列表.xlsx
@@ -1668,67 +1668,117 @@
     <t>获取所有资源信息</t>
   </si>
   <si>
+    <t>params/orgid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司表对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据orgid获取机构信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/empId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.basic.organization.saveMyCompany.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除员工兼职数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.basic.organization.deletExistCompany.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加员工兼职数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布新的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hs.common.orga.queryAppFunction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.tenant.permissions.deleteApplications.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要删除所有租户的可维护功能及对应角色的权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页快捷菜单缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.employee.employeeMgr.savehomePage.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.employee.employee.queryHomePage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/orgid
+params/userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.tenant.permissions.syncTenantRes.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据角色ID获取角色对应资源ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据资源ID获取资源对应的资源详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源表对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>新增资源且新增菜单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>params/orgid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司表对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据orgid获取机构信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>params/empId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.hsapi.system.basic.organization.saveMyCompany.biz.ext</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除员工兼职数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.hsapi.system.basic.organization.deletExistCompany.biz.ext</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加员工兼职数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布新的功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.hs.common.orga.queryAppFunction</t>
+    <t>com.hsapi.system.tenant.permissions.updateFunction.biz.ext
+com.hs.common.login.clearAndResetCache 清除并重新设置缓存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1736,23 +1786,6 @@
 com.hs.common.orga.queryAppFunction  权4
 com.hs.common.orga.queryResInfo  权2
 com.hs.common.orga.queryAppFunctionInfo  权1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.hsapi.system.tenant.permissions.deleteApplications.biz.ext</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要删除所有租户的可维护功能及对应角色的权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.hsapi.system.tenant.permissions.updateFunction.biz.ext
-com.hs.common.login.clearAndResetCache 清除并重新设置缓存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1766,39 +1799,6 @@
   </si>
   <si>
     <t>删除某些租户的资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页快捷菜单缓存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.hsapi.system.employee.employeeMgr.savehomePage.biz.ext</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.hsapi.system.employee.employee.queryHomePage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>params/orgid
-params/userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.hsapi.system.tenant.permissions.syncTenantRes.biz.ext</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据角色ID获取角色对应资源ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据资源ID获取资源对应的资源详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源表对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3177,7 +3177,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C94" sqref="C94"/>
+      <selection pane="bottomLeft" activeCell="B93" sqref="A93:XFD93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4365,7 +4365,7 @@
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="9"/>
       <c r="B93" s="10" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D93" t="s">
         <v>88</v>
@@ -4377,10 +4377,10 @@
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="9"/>
       <c r="B94" s="10" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C94" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D94" t="s">
         <v>91</v>
@@ -4389,16 +4389,16 @@
         <v>407</v>
       </c>
       <c r="F94" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="9"/>
       <c r="B95" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C95" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D95" t="s">
         <v>94</v>
@@ -4416,7 +4416,7 @@
         <v>410</v>
       </c>
       <c r="C96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D96" t="s">
         <v>97</v>
@@ -4434,10 +4434,10 @@
         <v>412</v>
       </c>
       <c r="C97" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D97" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E97" t="s">
         <v>411</v>
@@ -4452,7 +4452,7 @@
         <v>414</v>
       </c>
       <c r="C98" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D98" t="s">
         <v>102</v>
@@ -4467,16 +4467,16 @@
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="9"/>
       <c r="B99" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D99" t="s">
         <v>105</v>
       </c>
       <c r="E99" t="s">
+        <v>415</v>
+      </c>
+      <c r="F99" t="s">
         <v>416</v>
-      </c>
-      <c r="F99" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
@@ -4488,90 +4488,90 @@
         <v>108</v>
       </c>
       <c r="E100" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="9"/>
       <c r="B101" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C101" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D101" t="s">
         <v>108</v>
       </c>
       <c r="E101" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A102" s="9"/>
       <c r="B102" t="s">
+        <v>420</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="D102" t="s">
         <v>108</v>
       </c>
       <c r="E102" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A103" s="9"/>
-      <c r="B103" t="s">
-        <v>415</v>
+      <c r="B103" s="10" t="s">
+        <v>441</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="F103" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A104" s="9"/>
-      <c r="B104" t="s">
+      <c r="B104" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F104" t="s">
         <v>432</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F104" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A105" s="9"/>
-      <c r="B105" t="s">
+      <c r="B105" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B106" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D106" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/缓存列表.xlsx
+++ b/DOC/缓存列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="456">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1799,6 +1800,47 @@
   </si>
   <si>
     <t>删除某些租户的资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品对应的功能列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租户产品对应的产品信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/productId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/resUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/tenantId
+params/productId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买产品后分配可维护资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据页面地址取产品ID，判断是否受产品权限控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面地址对应的产品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取租户对应的产品信息，是否在有效期内</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1877,13 +1919,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2339,32 +2381,32 @@
       <selection activeCell="B21" sqref="B21:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.125" customWidth="1"/>
-    <col min="3" max="3" width="43.875" customWidth="1"/>
-    <col min="4" max="4" width="23.75" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="6" width="25.375" customWidth="1"/>
-    <col min="7" max="7" width="35.875" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.109375" customWidth="1"/>
+    <col min="3" max="3" width="43.88671875" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="7" max="7" width="35.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
       <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>230</v>
       </c>
@@ -2382,7 +2424,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>30</v>
       </c>
@@ -2400,7 +2442,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:7" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>36</v>
       </c>
@@ -2418,7 +2460,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>41</v>
       </c>
@@ -2434,7 +2476,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>42</v>
       </c>
@@ -2450,7 +2492,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>43</v>
       </c>
@@ -2468,7 +2510,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>44</v>
       </c>
@@ -2484,7 +2526,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" ht="81" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:7" ht="86.4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>45</v>
       </c>
@@ -2502,7 +2544,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>46</v>
       </c>
@@ -2520,7 +2562,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" ht="81" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:7" ht="86.4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>47</v>
       </c>
@@ -2538,7 +2580,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>48</v>
       </c>
@@ -2556,7 +2598,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>49</v>
       </c>
@@ -2574,7 +2616,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>50</v>
       </c>
@@ -2592,7 +2634,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -2606,7 +2648,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -2616,7 +2658,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="135" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" ht="144" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>9</v>
       </c>
@@ -2633,7 +2675,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -2650,7 +2692,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>11</v>
       </c>
@@ -2658,7 +2700,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>12</v>
       </c>
@@ -2666,7 +2708,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>14</v>
       </c>
@@ -2674,7 +2716,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -2682,47 +2724,47 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>25</v>
       </c>
@@ -2730,7 +2772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>15</v>
       </c>
@@ -2738,7 +2780,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -2761,7 +2803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -2775,7 +2817,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>90</v>
       </c>
@@ -2789,7 +2831,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -2803,7 +2845,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>95</v>
       </c>
@@ -2814,7 +2856,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -2825,7 +2867,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>100</v>
       </c>
@@ -2836,7 +2878,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>101</v>
       </c>
@@ -2847,7 +2889,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>103</v>
       </c>
@@ -2855,7 +2897,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>104</v>
       </c>
@@ -2869,7 +2911,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>107</v>
       </c>
@@ -2883,7 +2925,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>160</v>
       </c>
@@ -2891,7 +2933,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>111</v>
       </c>
@@ -2899,7 +2941,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>113</v>
       </c>
@@ -2910,17 +2952,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>118</v>
       </c>
@@ -2928,7 +2970,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>120</v>
       </c>
@@ -2936,7 +2978,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>122</v>
       </c>
@@ -2944,7 +2986,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>124</v>
       </c>
@@ -2952,7 +2994,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>126</v>
       </c>
@@ -2960,42 +3002,42 @@
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>134</v>
       </c>
@@ -3003,142 +3045,142 @@
         <v>198</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B71" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B73" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="81" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="83" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="84" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="85" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="86" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="87" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="89" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="91" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="92" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="93" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>164</v>
       </c>
@@ -3149,12 +3191,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>161</v>
       </c>
@@ -3173,24 +3215,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B93" sqref="A93:XFD93"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="51.875" customWidth="1"/>
-    <col min="4" max="4" width="53.375" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="51.88671875" customWidth="1"/>
+    <col min="4" max="4" width="53.33203125" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="35.375" customWidth="1"/>
-    <col min="7" max="7" width="30.75" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" customWidth="1"/>
+    <col min="7" max="7" width="30.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>169</v>
       </c>
@@ -3213,8 +3255,8 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>170</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -3236,8 +3278,8 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
       <c r="B3" t="s">
         <v>172</v>
       </c>
@@ -3257,8 +3299,8 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
       <c r="B4" t="s">
         <v>173</v>
       </c>
@@ -3278,8 +3320,8 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
       <c r="B5" t="s">
         <v>174</v>
       </c>
@@ -3299,8 +3341,8 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
       <c r="B6" t="s">
         <v>175</v>
       </c>
@@ -3320,8 +3362,8 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
       <c r="B7" t="s">
         <v>176</v>
       </c>
@@ -3341,8 +3383,8 @@
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
       <c r="B8" t="s">
         <v>177</v>
       </c>
@@ -3362,8 +3404,8 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
       <c r="B9" t="s">
         <v>195</v>
       </c>
@@ -3383,8 +3425,8 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
       <c r="B10" t="s">
         <v>199</v>
       </c>
@@ -3398,8 +3440,8 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
       <c r="B11" t="s">
         <v>202</v>
       </c>
@@ -3413,8 +3455,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
       <c r="B12" t="s">
         <v>207</v>
       </c>
@@ -3422,8 +3464,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="9"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
       <c r="B13" t="s">
         <v>209</v>
       </c>
@@ -3431,8 +3473,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
       <c r="B14" t="s">
         <v>396</v>
       </c>
@@ -3446,12 +3488,12 @@
         <v>399</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
       <c r="B16" t="s">
         <v>210</v>
       </c>
@@ -3459,8 +3501,8 @@
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
       <c r="B17" t="s">
         <v>213</v>
       </c>
@@ -3468,8 +3510,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>228</v>
       </c>
       <c r="B18" t="s">
@@ -3491,8 +3533,8 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="9"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
       <c r="B19" t="s">
         <v>220</v>
       </c>
@@ -3506,8 +3548,8 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="9"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
       <c r="B20" t="s">
         <v>223</v>
       </c>
@@ -3515,8 +3557,8 @@
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="9"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
       <c r="B21" t="s">
         <v>222</v>
       </c>
@@ -3533,8 +3575,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>231</v>
       </c>
       <c r="B22" t="s">
@@ -3544,8 +3586,8 @@
         <v>233</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="9"/>
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
       <c r="B23" t="s">
         <v>235</v>
       </c>
@@ -3553,8 +3595,8 @@
         <v>237</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="9"/>
+    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
       <c r="B24" t="s">
         <v>238</v>
       </c>
@@ -3571,8 +3613,8 @@
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="9"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
       <c r="B25" t="s">
         <v>243</v>
       </c>
@@ -3580,8 +3622,8 @@
         <v>244</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="9"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
       <c r="B26" t="s">
         <v>247</v>
       </c>
@@ -3595,8 +3637,8 @@
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="9"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
       <c r="B27" t="s">
         <v>248</v>
       </c>
@@ -3604,8 +3646,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A28" s="9"/>
+    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
       <c r="B28" t="s">
         <v>249</v>
       </c>
@@ -3619,7 +3661,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>252</v>
       </c>
@@ -3627,7 +3669,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>263</v>
       </c>
@@ -3644,7 +3686,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>265</v>
       </c>
@@ -3652,7 +3694,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>268</v>
       </c>
@@ -3663,7 +3705,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>273</v>
       </c>
@@ -3677,7 +3719,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>274</v>
       </c>
@@ -3685,12 +3727,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="81" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:6" ht="86.4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>277</v>
       </c>
@@ -3707,7 +3749,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="81" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:6" ht="86.4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>283</v>
       </c>
@@ -3721,7 +3763,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="81" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:6" ht="86.4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>284</v>
       </c>
@@ -3735,7 +3777,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="81" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:6" ht="86.4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>285</v>
       </c>
@@ -3749,7 +3791,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="81" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:6" ht="86.4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>286</v>
       </c>
@@ -3763,7 +3805,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="81" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:6" ht="86.4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>294</v>
       </c>
@@ -3777,7 +3819,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:6" ht="100.8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>42</v>
       </c>
@@ -3794,15 +3836,15 @@
         <v>293</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>44</v>
       </c>
@@ -3816,7 +3858,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>300</v>
       </c>
@@ -3833,7 +3875,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>309</v>
       </c>
@@ -3842,7 +3884,7 @@
       </c>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>314</v>
       </c>
@@ -3854,7 +3896,7 @@
       </c>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>296</v>
       </c>
@@ -3868,7 +3910,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>310</v>
       </c>
@@ -3877,7 +3919,7 @@
       </c>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>306</v>
       </c>
@@ -3891,7 +3933,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>311</v>
       </c>
@@ -3899,7 +3941,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>317</v>
       </c>
@@ -3913,7 +3955,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>318</v>
       </c>
@@ -3927,7 +3969,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>324</v>
       </c>
@@ -3941,7 +3983,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>49</v>
       </c>
@@ -3955,7 +3997,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="57" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>323</v>
       </c>
@@ -3969,7 +4011,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>8</v>
       </c>
@@ -3983,7 +4025,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="59" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>260</v>
       </c>
@@ -3994,7 +4036,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="60" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>259</v>
       </c>
@@ -4005,7 +4047,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="61" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>344</v>
       </c>
@@ -4016,7 +4058,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="62" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>270</v>
       </c>
@@ -4027,7 +4069,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>333</v>
       </c>
@@ -4041,7 +4083,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>334</v>
       </c>
@@ -4049,7 +4091,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>336</v>
       </c>
@@ -4063,7 +4105,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>338</v>
       </c>
@@ -4077,7 +4119,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>342</v>
       </c>
@@ -4091,7 +4133,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>348</v>
       </c>
@@ -4105,7 +4147,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>352</v>
       </c>
@@ -4119,7 +4161,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>261</v>
       </c>
@@ -4130,7 +4172,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>355</v>
       </c>
@@ -4138,7 +4180,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="72" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>363</v>
       </c>
@@ -4149,7 +4191,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>360</v>
       </c>
@@ -4163,7 +4205,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>358</v>
       </c>
@@ -4171,19 +4213,19 @@
         <v>357</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>367</v>
       </c>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="C76" s="1" t="s">
         <v>366</v>
       </c>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>291</v>
       </c>
@@ -4191,7 +4233,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="78" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>369</v>
       </c>
@@ -4202,7 +4244,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="79" spans="2:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>356</v>
       </c>
@@ -4216,7 +4258,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="80" spans="2:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>2</v>
       </c>
@@ -4228,7 +4270,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>3</v>
       </c>
@@ -4240,7 +4282,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>4</v>
       </c>
@@ -4251,7 +4293,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>5</v>
       </c>
@@ -4262,7 +4304,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>6</v>
       </c>
@@ -4273,7 +4315,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>7</v>
       </c>
@@ -4284,7 +4326,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>8</v>
       </c>
@@ -4295,7 +4337,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>9</v>
       </c>
@@ -4306,7 +4348,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>390</v>
       </c>
@@ -4317,7 +4359,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>392</v>
       </c>
@@ -4325,7 +4367,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>322</v>
       </c>
@@ -4339,8 +4381,8 @@
         <v>394</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A91" s="9" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="10" t="s">
         <v>402</v>
       </c>
       <c r="B91" t="s">
@@ -4350,9 +4392,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A92" s="9"/>
-      <c r="B92" s="10" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="10"/>
+      <c r="B92" s="8" t="s">
         <v>404</v>
       </c>
       <c r="D92" t="s">
@@ -4362,9 +4404,9 @@
         <v>405</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A93" s="9"/>
-      <c r="B93" s="10" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="10"/>
+      <c r="B93" s="8" t="s">
         <v>438</v>
       </c>
       <c r="D93" t="s">
@@ -4374,9 +4416,9 @@
         <v>406</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A94" s="9"/>
-      <c r="B94" s="10" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="10"/>
+      <c r="B94" s="8" t="s">
         <v>439</v>
       </c>
       <c r="C94" t="s">
@@ -4392,8 +4434,8 @@
         <v>440</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A95" s="9"/>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="10"/>
       <c r="B95" t="s">
         <v>439</v>
       </c>
@@ -4410,8 +4452,8 @@
         <v>409</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A96" s="9"/>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="10"/>
       <c r="B96" t="s">
         <v>410</v>
       </c>
@@ -4428,8 +4470,8 @@
         <v>413</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A97" s="9"/>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="10"/>
       <c r="B97" t="s">
         <v>412</v>
       </c>
@@ -4446,8 +4488,8 @@
         <v>408</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A98" s="9"/>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="10"/>
       <c r="B98" t="s">
         <v>414</v>
       </c>
@@ -4464,8 +4506,8 @@
         <v>409</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A99" s="9"/>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="10"/>
       <c r="B99" t="s">
         <v>417</v>
       </c>
@@ -4479,8 +4521,8 @@
         <v>416</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A100" s="9"/>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="10"/>
       <c r="B100" t="s">
         <v>107</v>
       </c>
@@ -4491,8 +4533,8 @@
         <v>418</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A101" s="9"/>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="10"/>
       <c r="B101" t="s">
         <v>422</v>
       </c>
@@ -4506,8 +4548,8 @@
         <v>418</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A102" s="9"/>
+    <row r="102" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A102" s="10"/>
       <c r="B102" t="s">
         <v>420</v>
       </c>
@@ -4521,9 +4563,9 @@
         <v>418</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A103" s="9"/>
-      <c r="B103" s="10" t="s">
+    <row r="103" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A103" s="10"/>
+      <c r="B103" s="8" t="s">
         <v>441</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -4536,9 +4578,9 @@
         <v>423</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="A104" s="9"/>
-      <c r="B104" s="10" t="s">
+    <row r="104" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A104" s="10"/>
+      <c r="B104" s="8" t="s">
         <v>430</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -4551,16 +4593,16 @@
         <v>432</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A105" s="9"/>
-      <c r="B105" s="10" t="s">
+    <row r="105" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A105" s="10"/>
+      <c r="B105" s="8" t="s">
         <v>445</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>433</v>
       </c>
@@ -4574,12 +4616,51 @@
         <v>436</v>
       </c>
     </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="B107" t="s">
+        <v>447</v>
+      </c>
+      <c r="E107" t="s">
+        <v>449</v>
+      </c>
+      <c r="F107" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="10"/>
+      <c r="B108" t="s">
+        <v>454</v>
+      </c>
+      <c r="E108" t="s">
+        <v>450</v>
+      </c>
+      <c r="F108" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="10"/>
+      <c r="B109" t="s">
+        <v>448</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F109" t="s">
+        <v>455</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A107:A109"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4593,7 +4674,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/缓存列表.xlsx
+++ b/DOC/缓存列表.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="460">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1841,6 +1840,22 @@
   </si>
   <si>
     <t>取租户对应的产品信息，是否在有效期内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.data.productMgr.queryProductRes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.tenant.product.saveProductRes.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.data.productMgr.queryProductIdByResUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.tenant.product.saveProductRes.biz.ext</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3219,7 +3234,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D113" sqref="D113"/>
+      <selection pane="bottomLeft" activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4616,13 +4631,19 @@
         <v>436</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>446</v>
       </c>
       <c r="B107" t="s">
         <v>447</v>
       </c>
+      <c r="C107" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D107" t="s">
+        <v>456</v>
+      </c>
       <c r="E107" t="s">
         <v>449</v>
       </c>
@@ -4630,10 +4651,16 @@
         <v>452</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A108" s="10"/>
       <c r="B108" t="s">
         <v>454</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D108" t="s">
+        <v>458</v>
       </c>
       <c r="E108" t="s">
         <v>450</v>

--- a/DOC/缓存列表.xlsx
+++ b/DOC/缓存列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="462">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1851,11 +1851,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>com.hsapi.system.tenant.product.saveProductRes.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>com.hsapi.system.data.productMgr.queryProductIdByResUrl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>com.hsapi.system.tenant.product.saveProductRes.biz.ext</t>
+    <t>com.hsapi.system.data.productMgr.queryTenantProductByTenantAndProduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.tenant.product.resetTenantProductCache.biz.ext</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3234,7 +3242,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C109" sqref="C109"/>
+      <selection pane="bottomLeft" activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4657,10 +4665,10 @@
         <v>454</v>
       </c>
       <c r="C108" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D108" t="s">
         <v>459</v>
-      </c>
-      <c r="D108" t="s">
-        <v>458</v>
       </c>
       <c r="E108" t="s">
         <v>450</v>
@@ -4673,6 +4681,12 @@
       <c r="A109" s="10"/>
       <c r="B109" t="s">
         <v>448</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D109" t="s">
+        <v>460</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>451</v>

--- a/DOC/缓存列表.xlsx
+++ b/DOC/缓存列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="472">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1864,6 +1864,47 @@
   </si>
   <si>
     <t>com.hsapi.system.tenant.product.resetTenantProductCache.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据按钮ID查询按钮详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色资源按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据角色，区域获取按钮ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hs.common.orga.queryRoleResBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/roleId
+params/btnArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.tenant.permissions.saveFunctionBtnAuths.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hs.common.orga.queryBtnInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.hsapi.system.tenant.permissions.updateFuncbtn.biz.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params/btnId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1919,7 +1960,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1949,6 +1990,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3238,11 +3280,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C110" sqref="C110"/>
+      <selection pane="bottomLeft" activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4588,7 +4630,7 @@
     </row>
     <row r="103" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A103" s="10"/>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="11" t="s">
         <v>441</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -4603,7 +4645,7 @@
     </row>
     <row r="104" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A104" s="10"/>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="11" t="s">
         <v>430</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -4618,7 +4660,7 @@
     </row>
     <row r="105" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="11" t="s">
         <v>445</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -4626,72 +4668,108 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
+      <c r="A106" s="10"/>
+      <c r="B106" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D106" t="s">
+        <v>469</v>
+      </c>
+      <c r="E106" t="s">
+        <v>471</v>
+      </c>
+      <c r="F106" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A107" s="10"/>
+      <c r="B107" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D107" t="s">
+        <v>466</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F107" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
         <v>433</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D108" t="s">
         <v>435</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A107" s="10" t="s">
+    <row r="109" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A109" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B109" t="s">
         <v>447</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D109" t="s">
         <v>456</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E109" t="s">
         <v>449</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F109" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A108" s="10"/>
-      <c r="B108" t="s">
+    <row r="110" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A110" s="10"/>
+      <c r="B110" t="s">
         <v>454</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D110" t="s">
         <v>459</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E110" t="s">
         <v>450</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F110" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="10"/>
-      <c r="B109" t="s">
+    <row r="111" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="10"/>
+      <c r="B111" t="s">
         <v>448</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D111" t="s">
         <v>460</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F111" t="s">
         <v>455</v>
       </c>
     </row>
@@ -4700,8 +4778,8 @@
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="A91:A107"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
